--- a/data/sample2.xlsx
+++ b/data/sample2.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="21100" windowWidth="38400" xWindow="43320" yWindow="-2360"/>
   </bookViews>
   <sheets>
     <sheet name="ProfileMatrix" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="標準" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
@@ -413,113 +419,144 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="106">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>項目名</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>設定値</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" t="n">
-        <v>3</v>
+          <t>PCL</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>クラス名</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HogeClass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>メソッド名</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FugaMethod</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>項目名</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>設定値</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>hobbies</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>('サッカー', '読書')</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>◯</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
         <is>
           <t>('料理', '旅行')</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>◯</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
         <is>
           <t>('映画鑑賞',)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>◯</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>isActive</t>
         </is>
       </c>
-      <c r="B5" t="b">
+      <c r="B10" t="b">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>◯</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="b">
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="b">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>◯</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>◯</t>
         </is>
